--- a/src/test/resources/testdata/batch14excel.xlsx
+++ b/src/test/resources/testdata/batch14excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choco\IdeaProjects\CucumberBatch14\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{770DFB7E-7E65-4875-9BCF-27821F442905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57393A1B-A8AC-4955-A469-EC1E5FED3CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="840" windowWidth="14230" windowHeight="8270" xr2:uid="{2F2495E4-6995-4DA4-AFB5-01E57F9908BF}"/>
+    <workbookView xWindow="4000" yWindow="1930" windowWidth="14230" windowHeight="8270" xr2:uid="{2F2495E4-6995-4DA4-AFB5-01E57F9908BF}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>firstName</t>
   </si>
@@ -59,40 +59,46 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>anton</t>
-  </si>
-  <si>
-    <t>Syntax123!</t>
-  </si>
-  <si>
-    <t>ivan</t>
-  </si>
-  <si>
-    <t>ivan123</t>
-  </si>
-  <si>
-    <t>neel</t>
-  </si>
-  <si>
-    <t>ronaldo</t>
-  </si>
-  <si>
-    <t>neel123</t>
-  </si>
-  <si>
-    <t>messi</t>
-  </si>
-  <si>
-    <t>mbappe</t>
-  </si>
-  <si>
-    <t>messi123</t>
-  </si>
-  <si>
-    <t>C:\Users\choco\Desktop\newImages.jpg</t>
+    <t>C:\Users\choco\Desktop\newImage.jpg</t>
+  </si>
+  <si>
+    <t>ka122</t>
+  </si>
+  <si>
+    <t>fca122</t>
+  </si>
+  <si>
+    <t>Syntax123#</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>sorraa</t>
+  </si>
+  <si>
+    <t>sorraa122</t>
+  </si>
+  <si>
+    <t>ew</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>fea</t>
+  </si>
+  <si>
+    <t>aeea</t>
+  </si>
+  <si>
+    <t>haha</t>
+  </si>
+  <si>
+    <t>eeii</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,71 +491,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
